--- a/details.xlsx
+++ b/details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARVIND\Desktop\Arvind\SRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARVIND\Desktop\Arvind\Study\Programmings\Streamlit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC7F26D-83C3-4210-9418-74E428ECD5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B052A7-081A-4146-AF4C-E4864C904D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>S. No</t>
   </si>
@@ -69,22 +69,10 @@
     <t xml:space="preserve">Highlighter </t>
   </si>
   <si>
-    <t>Name and Signature</t>
-  </si>
-  <si>
-    <t>SRM INSTITUTE OF SCIENCE AND TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>DELHI-NCR CAMPUS, MODINAGAR</t>
-  </si>
-  <si>
     <t>Drawer Keys(2nd Floor)</t>
   </si>
   <si>
     <t>Drawer Keys(VKC)</t>
-  </si>
-  <si>
-    <t>Arvind Kumar</t>
   </si>
   <si>
     <t xml:space="preserve">IE Copies </t>
@@ -103,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,18 +113,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -280,19 +256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,6 +343,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -387,15 +359,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -415,8 +378,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66245627-45AB-46FA-920E-D6DBA3413E29}" name="Table2" displayName="Table2" ref="A3:C19" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <autoFilter ref="A3:C19" xr:uid="{66245627-45AB-46FA-920E-D6DBA3413E29}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66245627-45AB-46FA-920E-D6DBA3413E29}" name="Table2" displayName="Table2" ref="A1:C17" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C17" xr:uid="{66245627-45AB-46FA-920E-D6DBA3413E29}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B23F5D9D-4E2F-41DE-96F5-EC1F0FE40953}" name="S. No" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{7FD9F4C0-0850-4599-9902-446BB7C5404D}" name="Particulars" dataDxfId="1"/>
@@ -689,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,223 +665,188 @@
     <col min="3" max="3" width="38.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>13</v>
+      <c r="A16" s="5">
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11">
-        <v>4</v>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
